--- a/excelfile10b.xlsx
+++ b/excelfile10b.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Documents\GitHub\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636523BE-FAA7-4230-9F53-ECE50C320AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E066D1-9B77-4ACA-9A1E-057242D78BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="50" windowWidth="18690" windowHeight="10030" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18690" windowHeight="10030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quizz 10b.1" sheetId="1" r:id="rId1"/>
-    <sheet name="Quizz 10b.2" sheetId="2" r:id="rId2"/>
-    <sheet name="Quizz 10b.3" sheetId="3" r:id="rId3"/>
+    <sheet name="Quizz 9C.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quizz 9C.2" sheetId="2" r:id="rId2"/>
+    <sheet name="Quizz 9C.3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1404,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:J26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5BCAA2-0545-4B51-A618-E2BB7F78254B}">
   <dimension ref="J2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
